--- a/vsphere-configs.xlsx
+++ b/vsphere-configs.xlsx
@@ -5,84 +5,87 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\operator\Downloads\vSphere6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\vmware\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="adinfo" sheetId="6" r:id="rId1"/>
-    <sheet name="certs" sheetId="9" r:id="rId2"/>
-    <sheet name="clusters" sheetId="3" r:id="rId3"/>
-    <sheet name="folders" sheetId="11" r:id="rId4"/>
-    <sheet name="permissions" sheetId="12" r:id="rId5"/>
-    <sheet name="roles" sheetId="10" r:id="rId6"/>
-    <sheet name="services" sheetId="14" r:id="rId7"/>
-    <sheet name="sites" sheetId="8" r:id="rId8"/>
-    <sheet name="vcsa" sheetId="4" r:id="rId9"/>
-    <sheet name="vdswitches" sheetId="2" r:id="rId10"/>
-    <sheet name="vlans" sheetId="1" r:id="rId11"/>
-    <sheet name="OS" sheetId="13" r:id="rId12"/>
+    <sheet name="Summary" sheetId="17" r:id="rId1"/>
+    <sheet name="adinfo" sheetId="6" r:id="rId2"/>
+    <sheet name="autodeploy" sheetId="15" r:id="rId3"/>
+    <sheet name="certs" sheetId="9" r:id="rId4"/>
+    <sheet name="clusters" sheetId="3" r:id="rId5"/>
+    <sheet name="folders" sheetId="11" r:id="rId6"/>
+    <sheet name="licenses" sheetId="16" r:id="rId7"/>
+    <sheet name="permissions" sheetId="12" r:id="rId8"/>
+    <sheet name="roles" sheetId="10" r:id="rId9"/>
+    <sheet name="services" sheetId="14" r:id="rId10"/>
+    <sheet name="sites" sheetId="8" r:id="rId11"/>
+    <sheet name="vcsa" sheetId="4" r:id="rId12"/>
+    <sheet name="vdswitches" sheetId="2" r:id="rId13"/>
+    <sheet name="vlans" sheetId="1" r:id="rId14"/>
+    <sheet name="OS" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="Va6faae5947d38f29208e__d59t104" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t107" localSheetId="3">folders!$B$25</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t117" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t120" localSheetId="3">folders!$B$34</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t126" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t129" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t136" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t139" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t142" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t148" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t151" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t157" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t160" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t166" localSheetId="3">folders!$B$47</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t65" localSheetId="3">folders!$C$1</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t67" localSheetId="3">folders!$B$2</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t71" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t74" localSheetId="3">folders!$B$4</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t95" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__d59t98" localSheetId="3">folders!$B$22</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_05EAB2CB8DAD489896A3227DC2F660FE" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_0B76E0C9F69D422593D8EF324F18DEA3" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_208C756F0A8F4129A630AEA61E520E8A" localSheetId="3">folders!$C$1</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_2761DFF5BC3847CD9CDFC2D8E1B452EB" localSheetId="3">folders!$B$34</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_4BDA0E581EF846CF966DF8DB54F0F6AD" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_53F02E0621E149879DCA962EFD778555" localSheetId="3">folders!$B$25</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_92D5BA4D7DD140D9BC0B6AACAE79D855" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_AF6BE5D8495641E3B1C1E52365683684" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_D76128AA628146689B96BEC21FE3D2A8" localSheetId="3">folders!$B$2</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_EED4B0D06F2746D0BF1BE55AD413A916" localSheetId="3">folders!$B$22</definedName>
-    <definedName name="Va6faae5947d38f29208e__dd_F0EEC2610706486E82CDEEF00172BC12" localSheetId="3">folders!$B$4</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_05C2DCD8063248988D220579A5373774" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_3D7A984536D84DCAA2461602500D4815" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_815EDEA6800240B5B89C55DD5CDD4B78" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_9517B6F66D924655A36FAE5A08C96A71" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_C0FA3912BFC140E991D1BB5080D96AFC" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_D721E1712F584B638745FB291DEAA10A" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_E3E057937E654DEFBADD124F04A5DD5E" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_EA5329F55C9E4299B13466781B822566" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__dlentry_FD6593CA1C4C4603BDB6CE2DE54CACDF" localSheetId="3">folders!$B$47</definedName>
-    <definedName name="Va6faae5947d38f29208e__li_06849E73312A4A6A974C079AF7A68281" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__li_485F45BE70E24ECE8C80D2F2AC032EBB" localSheetId="3">folders!#REF!</definedName>
-    <definedName name="Va6faae5947d38f29208e__li_7096E2EF037243D1A8C6ABE7E7775A94" localSheetId="3">folders!$E$11</definedName>
-    <definedName name="Va6faae5947d38f29208e__li_8A1FE0F77BB64F3B8DD3F84299550DE8" localSheetId="3">folders!$E$12</definedName>
-    <definedName name="Va6faae5947d38f29208e__p_3FDE3951A4FF439CA919ABE7F7664871" localSheetId="3">folders!$B$15</definedName>
-    <definedName name="Va6faae5947d38f29208e__p_706F07F8397146AD9B13328ADCF0C25E" localSheetId="3">folders!$B$28</definedName>
-    <definedName name="Va6faae5947d38f29208e__p_8389F4B1545245F49A915FBC7BDF6363" localSheetId="3">folders!$B$16</definedName>
-    <definedName name="Va6faae5947d38f29208e__p_85DD4D6D2D6C4D07BE8D27B7F7151CA6" localSheetId="3">folders!$B$19</definedName>
-    <definedName name="Va6faae5947d38f29208e__p_A4FB822C7CE2424A82D648912A6AF41C" localSheetId="3">folders!$B$13</definedName>
-    <definedName name="Va6faae5947d38f29208e__ul_CBC7275CB95B4FAD9CB7DFA6BD286490" localSheetId="3">folders!$B$11</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t104" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t107" localSheetId="5">folders!$B$25</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t117" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t120" localSheetId="5">folders!$B$34</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t126" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t129" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t136" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t139" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t142" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t148" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t151" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t157" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t160" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t166" localSheetId="5">folders!$B$47</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t65" localSheetId="5">folders!$C$1</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t67" localSheetId="5">folders!$B$2</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t71" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t74" localSheetId="5">folders!$B$4</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t95" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__d59t98" localSheetId="5">folders!$B$22</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_05EAB2CB8DAD489896A3227DC2F660FE" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_0B76E0C9F69D422593D8EF324F18DEA3" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_208C756F0A8F4129A630AEA61E520E8A" localSheetId="5">folders!$C$1</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_2761DFF5BC3847CD9CDFC2D8E1B452EB" localSheetId="5">folders!$B$34</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_4BDA0E581EF846CF966DF8DB54F0F6AD" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_53F02E0621E149879DCA962EFD778555" localSheetId="5">folders!$B$25</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_92D5BA4D7DD140D9BC0B6AACAE79D855" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_AF6BE5D8495641E3B1C1E52365683684" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_D76128AA628146689B96BEC21FE3D2A8" localSheetId="5">folders!$B$2</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_EED4B0D06F2746D0BF1BE55AD413A916" localSheetId="5">folders!$B$22</definedName>
+    <definedName name="Va6faae5947d38f29208e__dd_F0EEC2610706486E82CDEEF00172BC12" localSheetId="5">folders!$B$4</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_05C2DCD8063248988D220579A5373774" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_3D7A984536D84DCAA2461602500D4815" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_815EDEA6800240B5B89C55DD5CDD4B78" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_9517B6F66D924655A36FAE5A08C96A71" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_C0FA3912BFC140E991D1BB5080D96AFC" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_D721E1712F584B638745FB291DEAA10A" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_E3E057937E654DEFBADD124F04A5DD5E" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_EA5329F55C9E4299B13466781B822566" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__dlentry_FD6593CA1C4C4603BDB6CE2DE54CACDF" localSheetId="5">folders!$B$47</definedName>
+    <definedName name="Va6faae5947d38f29208e__li_06849E73312A4A6A974C079AF7A68281" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__li_485F45BE70E24ECE8C80D2F2AC032EBB" localSheetId="5">folders!#REF!</definedName>
+    <definedName name="Va6faae5947d38f29208e__li_7096E2EF037243D1A8C6ABE7E7775A94" localSheetId="5">folders!$E$11</definedName>
+    <definedName name="Va6faae5947d38f29208e__li_8A1FE0F77BB64F3B8DD3F84299550DE8" localSheetId="5">folders!$E$12</definedName>
+    <definedName name="Va6faae5947d38f29208e__p_3FDE3951A4FF439CA919ABE7F7664871" localSheetId="5">folders!$B$15</definedName>
+    <definedName name="Va6faae5947d38f29208e__p_706F07F8397146AD9B13328ADCF0C25E" localSheetId="5">folders!$B$28</definedName>
+    <definedName name="Va6faae5947d38f29208e__p_8389F4B1545245F49A915FBC7BDF6363" localSheetId="5">folders!$B$16</definedName>
+    <definedName name="Va6faae5947d38f29208e__p_85DD4D6D2D6C4D07BE8D27B7F7151CA6" localSheetId="5">folders!$B$19</definedName>
+    <definedName name="Va6faae5947d38f29208e__p_A4FB822C7CE2424A82D648912A6AF41C" localSheetId="5">folders!$B$13</definedName>
+    <definedName name="Va6faae5947d38f29208e__ul_CBC7275CB95B4FAD9CB7DFA6BD286490" localSheetId="5">folders!$B$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="461">
   <si>
     <t>vlan name</t>
   </si>
@@ -1437,6 +1440,99 @@
   </si>
   <si>
     <t>acme\levelthree</t>
+  </si>
+  <si>
+    <t>RuleName</t>
+  </si>
+  <si>
+    <t>ProfileImport</t>
+  </si>
+  <si>
+    <t>ProfileName</t>
+  </si>
+  <si>
+    <t>ProfileRootPassword</t>
+  </si>
+  <si>
+    <t>ProfileAnnotation</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>SoftwareDepot</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Activate</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>Profile.vpf</t>
+  </si>
+  <si>
+    <t>License Key</t>
+  </si>
+  <si>
+    <t>Apply To</t>
+  </si>
+  <si>
+    <t>Separate multiple entries in ApplyTo and Type by Commas.</t>
+  </si>
+  <si>
+    <t>DC = Datacenter</t>
+  </si>
+  <si>
+    <t>e.g.</t>
+  </si>
+  <si>
+    <t>CL = Cluster</t>
+  </si>
+  <si>
+    <t>ApplyTo</t>
+  </si>
+  <si>
+    <t>VC = vCenter</t>
+  </si>
+  <si>
+    <t>DC1,DC2,NewYork</t>
+  </si>
+  <si>
+    <t>DC,DC,CL</t>
+  </si>
+  <si>
+    <t>VH = VMHost</t>
+  </si>
+  <si>
+    <t>ipv4=10.100.100.10-10.100.100.250</t>
+  </si>
+  <si>
+    <t>ipv4=10.120.100.10-10.120.100.250</t>
+  </si>
+  <si>
+    <t>VMware-Host-Client-1.0.0-offline-bundle-3617585.zip</t>
+  </si>
+  <si>
+    <t>AutoDeploy Profile</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>ny,ca</t>
+  </si>
+  <si>
+    <t>DC,DC</t>
+  </si>
+  <si>
+    <t>uk,nl</t>
+  </si>
+  <si>
+    <t>11111-11111-11111-11111-11111</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +2029,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1946,6 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2292,58 +2389,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="1" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f xml:space="preserve"> "'MyPassword1'"</f>
-        <v>'MyPassword1'</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f xml:space="preserve"> "vc_admins"</f>
-        <v>vc_admins</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2472,1195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.15625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="2">
+        <v>130</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="2">
+        <v>140</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="8"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E6">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.26171875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
+        <v>vcsa-psc1.acme.com</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
+        <v>vcsa-psc1.acme.com</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f xml:space="preserve"> "static"</f>
+        <v>static</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f xml:space="preserve"> "ipv4"</f>
+        <v>ipv4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f xml:space="preserve"> "True"</f>
+        <v>True</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
+        <v>ny-esx-1.acme.com</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-vlan"</f>
+        <v>vcsa-vlan</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f xml:space="preserve"> "Datastore"</f>
+        <v>Datastore</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f xml:space="preserve"> "root"</f>
+        <v>root</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f xml:space="preserve"> "esxrootpw"</f>
+        <v>esxrootpw</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f xml:space="preserve"> "acme-vm.com"</f>
+        <v>acme-vm.com</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
+        <v>vcsa-psc2.acme.com</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
+        <v>vcsa-psc2.acme.com</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f xml:space="preserve"> "static"</f>
+        <v>static</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f xml:space="preserve"> "ipv4"</f>
+        <v>ipv4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f xml:space="preserve"> "True"</f>
+        <v>True</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
+        <v>ca-esx-1.acme.com</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-vlan"</f>
+        <v>vcsa-vlan</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f xml:space="preserve"> "Datastore"</f>
+        <v>Datastore</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f xml:space="preserve"> "root"</f>
+        <v>root</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f xml:space="preserve"> "esxrootpw"</f>
+        <v>esxrootpw</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f xml:space="preserve"> "acme-vm.com"</f>
+        <v>acme-vm.com</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f xml:space="preserve"> "static"</f>
+        <v>static</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f xml:space="preserve"> "ipv4"</f>
+        <v>ipv4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2">
+        <v>24</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f xml:space="preserve"> "True"</f>
+        <v>True</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
+        <v>ny-esx-1.acme.com</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-vlan"</f>
+        <v>vcsa-vlan</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f xml:space="preserve"> "Datastore"</f>
+        <v>Datastore</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f xml:space="preserve"> "root"</f>
+        <v>root</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f xml:space="preserve"> "esxrootpw"</f>
+        <v>esxrootpw</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
+        <v>vcsa-psc1.acme.com</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f xml:space="preserve"> "acme-vm.com"</f>
+        <v>acme-vm.com</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f xml:space="preserve"> "static"</f>
+        <v>static</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f xml:space="preserve"> "ipv4"</f>
+        <v>ipv4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="2">
+        <v>24</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f xml:space="preserve"> "True"</f>
+        <v>True</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
+        <v>ca-esx-1.acme.com</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-vlan"</f>
+        <v>vcsa-vlan</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f xml:space="preserve"> "Datastore"</f>
+        <v>Datastore</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f xml:space="preserve"> "root"</f>
+        <v>root</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f xml:space="preserve"> "esxrootpw"</f>
+        <v>esxrootpw</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
+        <v>vcsa-psc2.acme.com</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f xml:space="preserve"> "acme-vm.com"</f>
+        <v>acme-vm.com</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2661,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
@@ -3677,11 +4986,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3909,6 +5218,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f xml:space="preserve"> "'MyPassword1'"</f>
+        <v>'MyPassword1'</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f xml:space="preserve"> "vc_admins"</f>
+        <v>vc_admins</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J2" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +5595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4392,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -4837,7 +6331,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5000,7 +6630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
@@ -6696,1261 +8326,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="22.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="2">
-        <v>120</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="2">
-        <v>130</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="2">
-        <v>140</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G9" s="8"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E6">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.26171875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
-        <v>vcsa-psc1.acme.com</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
-        <v>vcsa-psc1.acme.com</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f xml:space="preserve"> "static"</f>
-        <v>static</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f xml:space="preserve"> "ipv4"</f>
-        <v>ipv4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f xml:space="preserve"> "True"</f>
-        <v>True</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
-        <v>ny-esx-1.acme.com</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-vlan"</f>
-        <v>vcsa-vlan</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f xml:space="preserve"> "Datastore"</f>
-        <v>Datastore</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f xml:space="preserve"> "root"</f>
-        <v>root</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f xml:space="preserve"> "esxrootpw"</f>
-        <v>esxrootpw</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f xml:space="preserve"> "acme-vm.com"</f>
-        <v>acme-vm.com</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
-        <v>vcsa-psc2.acme.com</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
-        <v>vcsa-psc2.acme.com</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f xml:space="preserve"> "static"</f>
-        <v>static</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f xml:space="preserve"> "ipv4"</f>
-        <v>ipv4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f xml:space="preserve"> "True"</f>
-        <v>True</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
-        <v>ca-esx-1.acme.com</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-vlan"</f>
-        <v>vcsa-vlan</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <f xml:space="preserve"> "Datastore"</f>
-        <v>Datastore</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <f xml:space="preserve"> "root"</f>
-        <v>root</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <f xml:space="preserve"> "esxrootpw"</f>
-        <v>esxrootpw</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f xml:space="preserve"> "acme-vm.com"</f>
-        <v>acme-vm.com</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <f xml:space="preserve"> "static"</f>
-        <v>static</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="str">
-        <f xml:space="preserve"> "ipv4"</f>
-        <v>ipv4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="2">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="2" t="str">
-        <f xml:space="preserve"> "True"</f>
-        <v>True</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
-        <v>ny-esx-1.acme.com</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-vlan"</f>
-        <v>vcsa-vlan</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <f xml:space="preserve"> "Datastore"</f>
-        <v>Datastore</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="2" t="str">
-        <f xml:space="preserve"> "root"</f>
-        <v>root</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="2" t="str">
-        <f xml:space="preserve"> "esxrootpw"</f>
-        <v>esxrootpw</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
-        <v>vcsa-psc1.acme.com</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="2" t="str">
-        <f xml:space="preserve"> "acme-vm.com"</f>
-        <v>acme-vm.com</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="2" t="str">
-        <f xml:space="preserve"> "static"</f>
-        <v>static</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="2" t="str">
-        <f xml:space="preserve"> "ipv4"</f>
-        <v>ipv4</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="2">
-        <v>24</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="2" t="str">
-        <f xml:space="preserve"> "True"</f>
-        <v>True</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="2" t="str">
-        <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
-        <v>ca-esx-1.acme.com</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-vlan"</f>
-        <v>vcsa-vlan</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="2" t="str">
-        <f xml:space="preserve"> "Datastore"</f>
-        <v>Datastore</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" s="2" t="str">
-        <f xml:space="preserve"> "root"</f>
-        <v>root</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="2" t="str">
-        <f xml:space="preserve"> "esxrootpw"</f>
-        <v>esxrootpw</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="2" t="str">
-        <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
-        <v>vcsa-psc2.acme.com</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="2" t="str">
-        <f xml:space="preserve"> "acme-vm.com"</f>
-        <v>acme-vm.com</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/vsphere-configs.xlsx
+++ b/vsphere-configs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\vmware\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\operator\Documents\GitHub\vmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -5220,7 +5220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5256,8 +5258,8 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f xml:space="preserve"> "'MyPassword1'"</f>
-        <v>'MyPassword1'</v>
+        <f xml:space="preserve"> "'MyPassword1!'"</f>
+        <v>'MyPassword1!'</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>272</v>

--- a/vsphere-configs.xlsx
+++ b/vsphere-configs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="608" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="460">
   <si>
     <t>vlan name</t>
   </si>
@@ -310,15 +310,6 @@
   </si>
   <si>
     <t>vm name</t>
-  </si>
-  <si>
-    <t># PSC Deployment 1</t>
-  </si>
-  <si>
-    <t># PSC Deployment 2</t>
-  </si>
-  <si>
-    <t># VC Deployment 1</t>
   </si>
   <si>
     <t>Any legal vm name</t>
@@ -437,18 +428,12 @@
     <t>management-small</t>
   </si>
   <si>
-    <t>for vCenter or PSC Replication Partner</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>AD Domain</t>
   </si>
   <si>
-    <t># VC Deployment 2</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -1082,9 +1067,6 @@
     <t>ntp.acme.com</t>
   </si>
   <si>
-    <t>Needs to be a vswitch not a vds.</t>
-  </si>
-  <si>
     <t>10.120.10.10</t>
   </si>
   <si>
@@ -1533,6 +1515,21 @@
   </si>
   <si>
     <t>11111-11111-11111-11111-11111</t>
+  </si>
+  <si>
+    <t>Open SSL Folder</t>
+  </si>
+  <si>
+    <t>C:\OpenSSL-Win64</t>
+  </si>
+  <si>
+    <t>Deploy?</t>
+  </si>
+  <si>
+    <t>ova name</t>
+  </si>
+  <si>
+    <t>VMware-vCenter-Server-Appliance-6.5.0.5100-4602587_OVF10.ova</t>
   </si>
 </sst>
 </file>
@@ -2413,58 +2410,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2492,63 +2489,63 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C3" s="2">
         <v>120</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2">
         <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2570,1089 +2567,617 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.26171875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="1" width="7.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.15625" style="2"/>
+    <col min="26" max="26" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>457</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="str">
+      <c r="C2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="str">
+      <c r="D2" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="str">
+      <c r="F2" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="G2" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2" t="str">
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="str">
+      <c r="O2" s="2" t="str">
         <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
         <v>ny-esx-1.acme.com</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2" t="str">
+      <c r="P2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="str">
+      <c r="Q2" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="str">
+      <c r="S2" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="str">
+      <c r="U2" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="str">
+      <c r="V2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="2" t="str">
+      <c r="C3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2" t="str">
+      <c r="D3" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="str">
+      <c r="F3" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="G3" s="2">
         <v>24</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="str">
+      <c r="J3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="str">
+      <c r="O3" s="2" t="str">
         <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
         <v>ca-esx-1.acme.com</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="str">
+      <c r="P3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2" t="str">
+      <c r="Q3" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="str">
+      <c r="R3" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="2" t="str">
+      <c r="S3" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="str">
+      <c r="T3" s="2" t="str">
+        <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
+        <v>vcsa-psc1.acme.com</v>
+      </c>
+      <c r="U3" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2" t="str">
+      <c r="V3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="str">
+      <c r="F4" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="G4" s="2">
         <v>24</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="2" t="str">
+      <c r="J4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="2" t="str">
+      <c r="N4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
         <v>ny-esx-1.acme.com</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="2" t="str">
+      <c r="P4" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="2" t="str">
+      <c r="U4" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="2" t="str">
+      <c r="V4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="2" t="str">
+      <c r="F5" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="G5" s="2">
         <v>24</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="2" t="str">
+      <c r="J5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="2" t="str">
+      <c r="N5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
         <v>ca-esx-1.acme.com</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="2" t="str">
+      <c r="P5" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="2" t="str">
+      <c r="Q5" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" s="2" t="str">
+      <c r="R5" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="2" t="str">
+      <c r="S5" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="2" t="str">
+      <c r="T5" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="2" t="str">
+      <c r="U5" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="2" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="8"/>
+      <c r="Z10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="4"/>
+      <c r="Z20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,10 +3209,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3695,16 +3220,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3712,16 +3237,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3729,16 +3254,16 @@
         <v>1.2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3746,16 +3271,16 @@
         <v>1.3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3763,16 +3288,16 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3780,16 +3305,16 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3797,16 +3322,16 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3814,16 +3339,16 @@
         <v>9.9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3831,16 +3356,16 @@
         <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3848,16 +3373,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3865,16 +3390,16 @@
         <v>1.2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3882,16 +3407,16 @@
         <v>1.3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3899,16 +3424,16 @@
         <v>1.4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3916,16 +3441,16 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3933,16 +3458,16 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3950,16 +3475,16 @@
         <v>9.9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4001,87 +3526,87 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4089,19 +3614,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4109,19 +3634,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4129,19 +3654,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4149,19 +3674,19 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4169,79 +3694,79 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4249,19 +3774,19 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4269,19 +3794,19 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4289,19 +3814,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4309,19 +3834,19 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4329,19 +3854,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4349,19 +3874,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4369,19 +3894,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4389,19 +3914,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4412,16 +3937,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4429,139 +3954,139 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4569,19 +4094,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4589,19 +4114,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4612,16 +4137,16 @@
         <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4629,19 +4154,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4649,19 +4174,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4669,179 +4194,179 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4849,19 +4374,19 @@
         <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4869,19 +4394,19 @@
         <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4889,19 +4414,19 @@
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4909,59 +4434,59 @@
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4972,13 +4497,13 @@
         <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5027,105 +4552,105 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
         <v>238</v>
       </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>240</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>241</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>243</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" t="s">
         <v>244</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>245</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>246</v>
       </c>
-      <c r="M1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>249</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>252</v>
-      </c>
-      <c r="V1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W1" t="s">
-        <v>254</v>
-      </c>
-      <c r="X1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N2" s="8" t="b">
         <v>1</v>
@@ -5134,25 +4659,25 @@
         <v>0</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T2" s="8">
         <v>1</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Z2" s="8">
         <v>5</v>
@@ -5160,25 +4685,25 @@
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N3" s="8" t="b">
         <v>1</v>
@@ -5187,25 +4712,25 @@
         <v>0</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T3" s="8">
         <v>1</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Z3" s="8">
         <v>5</v>
@@ -5220,7 +4745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5239,10 +4764,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5250,7 +4775,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5262,7 +4787,7 @@
         <v>'MyPassword1!'</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5303,63 +4828,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J2" s="8" t="b">
         <v>1</v>
@@ -5367,31 +4892,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J3" s="8" t="b">
         <v>1</v>
@@ -5405,10 +4930,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5421,176 +4946,184 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>277</v>
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5619,10 +5152,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5630,13 +5163,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5644,13 +5177,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5658,13 +5191,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5672,83 +5205,83 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5756,13 +5289,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5770,13 +5303,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5784,13 +5317,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5798,85 +5331,85 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5907,19 +5440,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5927,19 +5460,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5947,19 +5480,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5967,19 +5500,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5987,319 +5520,319 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6350,118 +5883,118 @@
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6488,139 +6021,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6649,1679 +6182,1679 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/vsphere-configs.xlsx
+++ b/vsphere-configs.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="462">
   <si>
     <t>vlan name</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>VMware-vCenter-Server-Appliance-6.5.0.5100-4602587_OVF10.ova</t>
+  </si>
+  <si>
+    <t>Config?</t>
+  </si>
+  <si>
+    <t>Certs?</t>
   </si>
 </sst>
 </file>
@@ -2567,617 +2573,654 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.05078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.9453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.20703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="54.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.15625" style="2"/>
-    <col min="26" max="26" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.15625" style="2"/>
+    <col min="2" max="3" width="7.3125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.05078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="54.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.15625" style="2"/>
+    <col min="28" max="28" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="E2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="G2" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="H2" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="N2" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="Q2" s="2" t="str">
         <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
         <v>ny-esx-1.acme.com</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="S2" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="R2" s="2" t="str">
+      <c r="T2" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="S2" s="2" t="str">
+      <c r="U2" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="2" t="str">
+      <c r="W2" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="E3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="G3" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="H3" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="N3" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="2" t="str">
+      <c r="Q3" s="2" t="str">
         <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
         <v>ca-esx-1.acme.com</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="R3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="Q3" s="2" t="str">
+      <c r="S3" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="R3" s="2" t="str">
+      <c r="T3" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="S3" s="2" t="str">
+      <c r="U3" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="T3" s="2" t="str">
+      <c r="V3" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="U3" s="2" t="str">
+      <c r="W3" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="G4" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="H4" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="N4" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f xml:space="preserve"> "ny-esx-1.acme.com"</f>
         <v>ny-esx-1.acme.com</v>
       </c>
-      <c r="P4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="S4" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="R4" s="2" t="str">
+      <c r="T4" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="U4" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="T4" s="2" t="str">
+      <c r="V4" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc1.acme.com"</f>
         <v>vcsa-psc1.acme.com</v>
       </c>
-      <c r="U4" s="2" t="str">
+      <c r="W4" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="G5" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
         <v>static</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="H5" s="2" t="str">
         <f xml:space="preserve"> "ipv4"</f>
         <v>ipv4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="N5" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
         <v>True</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="2" t="str">
+      <c r="Q5" s="2" t="str">
         <f xml:space="preserve"> "ca-esx-1.acme.com"</f>
         <v>ca-esx-1.acme.com</v>
       </c>
-      <c r="P5" s="2" t="str">
+      <c r="R5" s="2" t="str">
         <f xml:space="preserve"> "vcsa-vlan"</f>
         <v>vcsa-vlan</v>
       </c>
-      <c r="Q5" s="2" t="str">
+      <c r="S5" s="2" t="str">
         <f xml:space="preserve"> "Datastore"</f>
         <v>Datastore</v>
       </c>
-      <c r="R5" s="2" t="str">
+      <c r="T5" s="2" t="str">
         <f xml:space="preserve"> "root"</f>
         <v>root</v>
       </c>
-      <c r="S5" s="2" t="str">
+      <c r="U5" s="2" t="str">
         <f xml:space="preserve"> "esxrootpw"</f>
         <v>esxrootpw</v>
       </c>
-      <c r="T5" s="2" t="str">
+      <c r="V5" s="2" t="str">
         <f xml:space="preserve"> "vcsa-psc2.acme.com"</f>
         <v>vcsa-psc2.acme.com</v>
       </c>
-      <c r="U5" s="2" t="str">
+      <c r="W5" s="2" t="str">
         <f xml:space="preserve"> "acme-vm.com"</f>
         <v>acme-vm.com</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z6" s="2" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z7" s="2" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z8" s="2" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB8" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z9" s="2" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB9" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="8"/>
-      <c r="Z10" s="2" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="8"/>
+      <c r="AB10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z11" s="2" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB11" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z12" s="2" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z13" s="2" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z14" s="2" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z15" s="4" t="s">
+    <row r="15" spans="1:28" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB15" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z16" s="2" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB16" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z17" s="2" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB17" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z18" s="2" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB18" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z19" s="2" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="4"/>
-      <c r="Z20" s="2" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="4"/>
+      <c r="AB20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z21" s="2" t="s">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB21" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z22" s="2" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z23" s="2" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB23" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z24" s="2" t="s">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB24" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="8"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="4"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="8"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" s="4"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="8"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vsphere-configs.xlsx
+++ b/vsphere-configs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="608" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="608" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="vdswitches" sheetId="2" r:id="rId13"/>
     <sheet name="vlans" sheetId="1" r:id="rId14"/>
     <sheet name="OS" sheetId="13" r:id="rId15"/>
+    <sheet name="Plugins" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Va6faae5947d38f29208e__d59t104" localSheetId="5">folders!#REF!</definedName>
@@ -80,12 +81,12 @@
     <definedName name="Va6faae5947d38f29208e__p_A4FB822C7CE2424A82D648912A6AF41C" localSheetId="5">folders!$B$13</definedName>
     <definedName name="Va6faae5947d38f29208e__ul_CBC7275CB95B4FAD9CB7DFA6BD286490" localSheetId="5">folders!$B$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="490">
   <si>
     <t>vlan name</t>
   </si>
@@ -911,12 +912,6 @@
     <t>LicenseMaxConnections</t>
   </si>
   <si>
-    <t>Gui</t>
-  </si>
-  <si>
-    <t>RunOnce</t>
-  </si>
-  <si>
     <t>Persistent</t>
   </si>
   <si>
@@ -971,9 +966,6 @@
     <t>vcadmins@acme.com</t>
   </si>
   <si>
-    <t>ca3\ca3.amce</t>
-  </si>
-  <si>
     <t>prod</t>
   </si>
   <si>
@@ -1085,27 +1077,6 @@
     <t>vDS No UpLink Networks</t>
   </si>
   <si>
-    <t>vDS-Production</t>
-  </si>
-  <si>
-    <t>vDS-Staging</t>
-  </si>
-  <si>
-    <t>vDS-Testing</t>
-  </si>
-  <si>
-    <t>vDS-Development</t>
-  </si>
-  <si>
-    <t>vDS-Infrastructure</t>
-  </si>
-  <si>
-    <t>vDS-QA</t>
-  </si>
-  <si>
-    <t>vDS-Lab</t>
-  </si>
-  <si>
     <t>1.0.0.0</t>
   </si>
   <si>
@@ -1508,12 +1479,6 @@
     <t>ny,ca</t>
   </si>
   <si>
-    <t>DC,DC</t>
-  </si>
-  <si>
-    <t>uk,nl</t>
-  </si>
-  <si>
     <t>11111-11111-11111-11111-11111</t>
   </si>
   <si>
@@ -1529,19 +1494,139 @@
     <t>ova name</t>
   </si>
   <si>
-    <t>VMware-vCenter-Server-Appliance-6.5.0.5100-4602587_OVF10.ova</t>
-  </si>
-  <si>
     <t>Config?</t>
   </si>
   <si>
     <t>Certs?</t>
+  </si>
+  <si>
+    <t>Post Completion Transcript Password Scrub</t>
+  </si>
+  <si>
+    <t>AD ESXi Domain Join Account</t>
+  </si>
+  <si>
+    <t>AD ESXi Domain Join Password</t>
+  </si>
+  <si>
+    <t>esxijoinad</t>
+  </si>
+  <si>
+    <t>vSphere Authentication Proxy Only.</t>
+  </si>
+  <si>
+    <t>Used to Download the Root Cert without renewing it.</t>
+  </si>
+  <si>
+    <t>Used to Download the Sub Cert without renewing it.</t>
+  </si>
+  <si>
+    <t>Used to Download the Sub2 Cert without renewing it.</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Certname: root64.cer</t>
+  </si>
+  <si>
+    <t>interm64.cer</t>
+  </si>
+  <si>
+    <t>interm264.cer</t>
+  </si>
+  <si>
+    <t>place certificates in \Certs folder</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>AuthProxy</t>
+  </si>
+  <si>
+    <t>VMware-vCenter-Server-Appliance-6.5.0.5500-5318154_OVF10.ova</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Production</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Staging</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Testing</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Development</t>
+  </si>
+  <si>
+    <t>vDS-XXX-QA</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Infrastructure</t>
+  </si>
+  <si>
+    <t>vDS-XXX-Lab</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>5.5.0</t>
+  </si>
+  <si>
+    <t>GuiRunOnce</t>
+  </si>
+  <si>
+    <t>Configure</t>
+  </si>
+  <si>
+    <t>Source Folder</t>
+  </si>
+  <si>
+    <t>Destination Folder</t>
+  </si>
+  <si>
+    <t>Source File(s)</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>/root</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>chmod +x ./install.sh</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>./install.sh</t>
+  </si>
+  <si>
+    <t>onyx\onyx-setup-60u2</t>
+  </si>
+  <si>
+    <t>ca3\ca3.acme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2392,12 +2477,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2415,60 +2515,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
+      <c r="A1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
+        <v>221</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
+        <v>221</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" t="s">
-        <v>264</v>
+        <v>221</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>263</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,46 +2604,46 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2">
         <v>120</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="2">
         <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2575,9 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2612,13 +2702,13 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>74</v>
@@ -2687,7 +2777,7 @@
         <v>73</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>239</v>
@@ -2712,7 +2802,7 @@
         <v>vcsa-psc1.acme.com</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G2" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
@@ -2726,16 +2816,16 @@
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="N2" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
@@ -2775,21 +2865,21 @@
         <v>acme-vm.com</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>1</v>
@@ -2806,7 +2896,7 @@
         <v>vcsa-psc2.acme.com</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G3" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
@@ -2820,16 +2910,16 @@
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N3" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
@@ -2870,13 +2960,13 @@
         <v>acme-vm.com</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>75</v>
@@ -2884,7 +2974,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -2893,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G4" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
@@ -2913,16 +3003,16 @@
         <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N4" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
@@ -2963,13 +3053,13 @@
         <v>acme-vm.com</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>76</v>
@@ -2977,7 +3067,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
@@ -2986,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G5" s="2" t="str">
         <f xml:space="preserve"> "static"</f>
@@ -3006,16 +3096,16 @@
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N5" s="2" t="str">
         <f xml:space="preserve"> "True"</f>
@@ -3056,13 +3146,13 @@
         <v>acme-vm.com</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>77</v>
@@ -3230,7 +3320,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3238,13 +3328,14 @@
   <cols>
     <col min="1" max="1" width="8.26171875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="2"/>
+    <col min="5" max="5" width="15.41796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3252,283 +3343,217 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>1.2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>313</v>
+        <v>469</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>1.3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>314</v>
+        <v>470</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>1.4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>1.5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>1.6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>473</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>9.9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
   </sheetData>
   <sortState ref="B2:B12">
@@ -3540,9 +3565,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3550,12 +3577,13 @@
     <col min="2" max="2" width="7.41796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="2"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3569,410 +3597,476 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -3980,199 +4074,229 @@
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -4180,359 +4304,413 @@
         <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
@@ -4543,9 +4721,12 @@
         <v>225</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4556,7 +4737,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4575,125 +4756,121 @@
     <col min="12" max="13" width="34.15625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.41796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.26171875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.41796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="P1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="P1" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N2" s="8" t="b">
         <v>1</v>
@@ -4701,52 +4878,52 @@
       <c r="O2" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="T2" s="8">
+      <c r="Q2" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="S2" s="8">
         <v>1</v>
       </c>
+      <c r="U2" s="8" t="s">
+        <v>405</v>
+      </c>
       <c r="V2" s="8" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>254</v>
+      </c>
+      <c r="Y2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N3" s="8" t="b">
         <v>1</v>
@@ -4754,48 +4931,203 @@
       <c r="O3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="T3" s="8">
+      <c r="Q3" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="8">
         <v>1</v>
       </c>
+      <c r="U3" s="8" t="s">
+        <v>405</v>
+      </c>
       <c r="V3" s="8" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z3" s="8">
+        <v>254</v>
+      </c>
+      <c r="Y3" s="8">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.47265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G7">
+    <sortCondition ref="B2:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.68359375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.15625" style="2"/>
   </cols>
@@ -4804,13 +5136,19 @@
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4818,7 +5156,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4830,7 +5168,7 @@
         <v>'MyPassword1!'</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4840,6 +5178,25 @@
       <c r="B5" s="2" t="str">
         <f xml:space="preserve"> "vc_admins"</f>
         <v>vc_admins</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4849,11 +5206,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4863,105 +5218,109 @@
     <col min="4" max="4" width="10.83984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.89453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.68359375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.62890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>448</v>
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
+        <v>423</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="8" t="b">
+        <v>438</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" s="8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J3" s="8" t="b">
+        <v>423</v>
+      </c>
+      <c r="I3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4973,26 +5332,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="26.15625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>120</v>
       </c>
@@ -5000,48 +5365,60 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>444</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -5051,16 +5428,19 @@
       <c r="C7" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>115</v>
       </c>
@@ -5068,7 +5448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +5456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -5084,7 +5464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -5092,15 +5472,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -5108,15 +5488,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
@@ -5124,7 +5504,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
@@ -5132,7 +5512,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
@@ -5140,28 +5520,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5175,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5200,16 +5589,19 @@
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>222</v>
@@ -5220,10 +5612,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>222</v>
@@ -5234,10 +5626,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>222</v>
@@ -5248,10 +5640,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>222</v>
@@ -5259,13 +5651,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>222</v>
@@ -5273,13 +5665,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>222</v>
@@ -5287,13 +5679,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>222</v>
@@ -5301,13 +5693,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>222</v>
@@ -5315,145 +5707,42 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>222</v>
-      </c>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="A2:A8">
@@ -5466,9 +5755,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5477,11 +5768,12 @@
     <col min="3" max="3" width="5.26171875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.68359375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="2"/>
+    <col min="6" max="6" width="3.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -5492,13 +5784,19 @@
         <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5514,11 +5812,14 @@
       <c r="E2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5534,11 +5835,14 @@
       <c r="E3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -5554,11 +5858,14 @@
       <c r="E4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -5574,13 +5881,16 @@
       <c r="E5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>212</v>
@@ -5594,13 +5904,16 @@
       <c r="E6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>212</v>
@@ -5614,13 +5927,16 @@
       <c r="E7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>212</v>
@@ -5634,13 +5950,16 @@
       <c r="E8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>212</v>
@@ -5654,13 +5973,16 @@
       <c r="E9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>212</v>
@@ -5674,230 +5996,254 @@
       <c r="E10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:F38">
@@ -5913,7 +6259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5929,10 +6277,10 @@
         <v>220</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>214</v>
@@ -5940,55 +6288,55 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>451</v>
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>214</v>
@@ -5997,47 +6345,47 @@
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>453</v>
+        <v>211</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +6397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6078,22 +6428,25 @@
       <c r="E1" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>222</v>
@@ -6101,19 +6454,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>222</v>
@@ -6124,13 +6477,13 @@
         <v>211</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>221</v>
@@ -6144,13 +6497,13 @@
         <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>221</v>
@@ -6164,13 +6517,13 @@
         <v>211</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>221</v>
@@ -6184,13 +6537,13 @@
         <v>211</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>221</v>
@@ -6212,7 +6565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6233,10 +6588,13 @@
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>129</v>
@@ -6250,7 +6608,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>130</v>
@@ -6264,7 +6622,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>131</v>
@@ -6278,7 +6636,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>132</v>
@@ -6292,7 +6650,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>133</v>
@@ -6306,7 +6664,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>134</v>
@@ -6320,7 +6678,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>135</v>
@@ -6334,7 +6692,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>136</v>
@@ -6348,7 +6706,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>137</v>
@@ -6362,7 +6720,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>138</v>
@@ -6376,7 +6734,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>139</v>
@@ -6390,7 +6748,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>140</v>
@@ -6404,7 +6762,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>130</v>
@@ -6418,7 +6776,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>131</v>
@@ -6432,7 +6790,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>132</v>
@@ -6446,7 +6804,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>141</v>
@@ -6460,7 +6818,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>142</v>
@@ -6474,7 +6832,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>143</v>
@@ -6488,7 +6846,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>144</v>
@@ -6502,7 +6860,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>145</v>
@@ -6516,7 +6874,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>146</v>
@@ -6530,7 +6888,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
@@ -6544,7 +6902,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>148</v>
@@ -6558,7 +6916,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>149</v>
@@ -6572,7 +6930,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>150</v>
@@ -6586,7 +6944,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>133</v>
@@ -6600,7 +6958,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>151</v>
@@ -6614,7 +6972,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>134</v>
@@ -6628,7 +6986,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>152</v>
@@ -6642,7 +7000,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>153</v>
@@ -6656,7 +7014,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>154</v>
@@ -6670,7 +7028,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>135</v>
@@ -6684,7 +7042,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>137</v>
@@ -6698,7 +7056,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>138</v>
@@ -6712,7 +7070,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>139</v>
@@ -6726,7 +7084,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>140</v>
@@ -6740,7 +7098,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>155</v>
@@ -6754,7 +7112,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>156</v>
@@ -6768,7 +7126,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>157</v>
@@ -6782,7 +7140,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>158</v>
@@ -6796,7 +7154,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>130</v>
@@ -6810,7 +7168,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>131</v>
@@ -6824,7 +7182,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>132</v>
@@ -6838,7 +7196,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>159</v>
@@ -6852,7 +7210,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>160</v>
@@ -6866,7 +7224,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>161</v>
@@ -6880,7 +7238,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>162</v>
@@ -6894,7 +7252,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>163</v>
@@ -6908,7 +7266,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>164</v>
@@ -6922,7 +7280,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>165</v>
@@ -6936,7 +7294,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>166</v>
@@ -6950,7 +7308,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>167</v>
@@ -6964,7 +7322,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>168</v>
@@ -6978,7 +7336,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>169</v>
@@ -6992,7 +7350,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>141</v>
@@ -7006,7 +7364,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>170</v>
@@ -7020,7 +7378,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>171</v>
@@ -7034,7 +7392,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>172</v>
@@ -7048,7 +7406,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>173</v>
@@ -7062,7 +7420,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>142</v>
@@ -7076,7 +7434,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>174</v>
@@ -7090,7 +7448,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>175</v>
@@ -7104,7 +7462,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>176</v>
@@ -7118,7 +7476,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>177</v>
@@ -7132,7 +7490,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>178</v>
@@ -7146,7 +7504,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>179</v>
@@ -7160,7 +7518,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>180</v>
@@ -7174,7 +7532,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>181</v>
@@ -7188,7 +7546,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>143</v>
@@ -7202,7 +7560,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>144</v>
@@ -7216,7 +7574,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>182</v>
@@ -7230,7 +7588,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>183</v>
@@ -7244,7 +7602,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>145</v>
@@ -7258,7 +7616,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>146</v>
@@ -7272,7 +7630,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>147</v>
@@ -7286,7 +7644,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>148</v>
@@ -7300,7 +7658,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>184</v>
@@ -7314,7 +7672,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>185</v>
@@ -7328,7 +7686,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>149</v>
@@ -7342,7 +7700,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>186</v>
@@ -7356,7 +7714,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>187</v>
@@ -7370,7 +7728,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>188</v>
@@ -7384,7 +7742,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>189</v>
@@ -7398,7 +7756,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>190</v>
@@ -7412,7 +7770,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>191</v>
@@ -7426,7 +7784,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>192</v>
@@ -7440,7 +7798,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>193</v>
@@ -7454,7 +7812,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>194</v>
@@ -7468,7 +7826,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>195</v>
@@ -7482,7 +7840,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>196</v>
@@ -7496,7 +7854,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>197</v>
@@ -7510,7 +7868,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>198</v>
@@ -7524,7 +7882,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>199</v>
@@ -7538,7 +7896,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>200</v>
@@ -7552,7 +7910,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>201</v>
@@ -7566,7 +7924,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>202</v>
@@ -7580,7 +7938,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>203</v>
@@ -7594,7 +7952,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>204</v>
@@ -7608,7 +7966,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>205</v>
@@ -7622,7 +7980,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>206</v>
@@ -7636,7 +7994,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>207</v>
@@ -7650,7 +8008,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>208</v>
@@ -7664,7 +8022,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>209</v>
@@ -7678,7 +8036,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>130</v>
@@ -7692,7 +8050,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>131</v>
@@ -7706,7 +8064,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>132</v>
@@ -7720,7 +8078,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -7734,7 +8092,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>144</v>
@@ -7748,7 +8106,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>145</v>
@@ -7762,7 +8120,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>146</v>
@@ -7776,7 +8134,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>147</v>
@@ -7790,7 +8148,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>148</v>
@@ -7804,7 +8162,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>149</v>
@@ -7818,7 +8176,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>130</v>
@@ -7832,7 +8190,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>131</v>
@@ -7846,7 +8204,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>132</v>
@@ -7860,7 +8218,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>144</v>
@@ -7874,7 +8232,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>145</v>
@@ -7888,7 +8246,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>146</v>
